--- a/tabelas/ocupacoes_emprego.xlsx
+++ b/tabelas/ocupacoes_emprego.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t xml:space="preserve">UF</t>
   </si>
@@ -47,88 +47,85 @@
     <t xml:space="preserve">Técnicos e profissionais de nível médio</t>
   </si>
   <si>
-    <t xml:space="preserve">Ocupações maldefinidas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53</t>
+    <t xml:space="preserve">Rondônia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amazonas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roraima</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pará</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amapá</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tocantins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maranhão</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Piauí</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ceará</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rio Grande do Norte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paraíba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pernambuco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alagoas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sergipe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bahia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minas Gerais</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Espírito Santo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rio de Janeiro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">São Paulo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paraná</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Santa Catarina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rio Grande do Sul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mato Grosso do Sul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mato Grosso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Goiás</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distrito Federal</t>
   </si>
 </sst>
 </file>
@@ -494,999 +491,951 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" t="n">
-        <v>0.03386557807366</v>
+        <v>0.0201686389091849</v>
       </c>
       <c r="C2" t="n">
-        <v>0.199254018157255</v>
+        <v>0.00664362879892597</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0910837419322778</v>
+        <v>0.172145584543326</v>
       </c>
       <c r="E2" t="n">
-        <v>0.221837683163917</v>
+        <v>0.0723328634159829</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0117981348195816</v>
+        <v>0.091796378017024</v>
       </c>
       <c r="G2" t="n">
-        <v>0.333055974460489</v>
+        <v>0.0806491318727564</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0474895996713611</v>
+        <v>0.211032612226614</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0318056476184381</v>
+        <v>0.153014809187971</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0150603226606078</v>
+        <v>0.132213500061965</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0147492994424134</v>
-      </c>
-      <c r="L2"/>
+        <v>0.0600028529662506</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0502572777935265</v>
+        <v>0.0287125219462351</v>
       </c>
       <c r="C3" t="n">
-        <v>0.120015476614518</v>
+        <v>0.0168013186605096</v>
       </c>
       <c r="D3" t="n">
-        <v>0.100703220060899</v>
+        <v>0.211442738505552</v>
       </c>
       <c r="E3" t="n">
-        <v>0.30740364082712</v>
+        <v>0.0963304836193762</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0083104747418374</v>
+        <v>0.110567223184651</v>
       </c>
       <c r="G3" t="n">
-        <v>0.272723283573859</v>
+        <v>0.0778360017879369</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0669712999960724</v>
+        <v>0.220600647659591</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0286872181831098</v>
+        <v>0.0639851350699922</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0304189684285869</v>
+        <v>0.102170799657417</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0145091397804708</v>
-      </c>
-      <c r="L3"/>
+        <v>0.0715531299087385</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0312149439725839</v>
+        <v>0.0274746376759474</v>
       </c>
       <c r="C4" t="n">
-        <v>0.164015140943855</v>
+        <v>0.0122057710046042</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0918291745478345</v>
+        <v>0.139388501548296</v>
       </c>
       <c r="E4" t="n">
-        <v>0.21217633628774</v>
+        <v>0.0692467787883576</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0488785268741515</v>
+        <v>0.10625082834921</v>
       </c>
       <c r="G4" t="n">
-        <v>0.277364465071562</v>
+        <v>0.0789228499817602</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0754340647425701</v>
+        <v>0.232134217906197</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0375862556575543</v>
+        <v>0.145889232305282</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0262567167188878</v>
+        <v>0.111760751414897</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0352443751832609</v>
-      </c>
-      <c r="L4"/>
+        <v>0.0767264310254493</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0177574128983873</v>
+        <v>0.0291018449949424</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0948338500107892</v>
+        <v>0.0265988006843235</v>
       </c>
       <c r="D5" t="n">
-        <v>0.102032739672665</v>
+        <v>0.175019902312352</v>
       </c>
       <c r="E5" t="n">
-        <v>0.301904551325645</v>
+        <v>0.0764052909855673</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0112714644824881</v>
+        <v>0.106497241074048</v>
       </c>
       <c r="G5" t="n">
-        <v>0.34795805931172</v>
+        <v>0.0888685173448948</v>
       </c>
       <c r="H5" t="n">
-        <v>0.056764190948322</v>
+        <v>0.226266247231214</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0241492159299526</v>
+        <v>0.0634633740404121</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0267021376285437</v>
+        <v>0.13876025560088</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0166263777914868</v>
-      </c>
-      <c r="L5"/>
+        <v>0.0690185257313651</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0714550249097015</v>
+        <v>0.0181256239841284</v>
       </c>
       <c r="C6" t="n">
-        <v>0.147966106871203</v>
+        <v>0.00929396953801001</v>
       </c>
       <c r="D6" t="n">
-        <v>0.114814727781895</v>
+        <v>0.194354342773542</v>
       </c>
       <c r="E6" t="n">
-        <v>0.194548729923837</v>
+        <v>0.0985171567332389</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0153245869778024</v>
+        <v>0.0858732797194509</v>
       </c>
       <c r="G6" t="n">
-        <v>0.312777195345895</v>
+        <v>0.0676108465755457</v>
       </c>
       <c r="H6" t="n">
-        <v>0.07739650656871</v>
+        <v>0.247017148315657</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0233356095577332</v>
+        <v>0.0794689906785537</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0224966013199689</v>
+        <v>0.132566514648183</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0198849107432543</v>
-      </c>
-      <c r="L6"/>
+        <v>0.0671721270336905</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0259091902069366</v>
+        <v>0.022529416334181</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0610328246689984</v>
+        <v>0.0151482001938657</v>
       </c>
       <c r="D7" t="n">
-        <v>0.11525636718449</v>
+        <v>0.179373301900989</v>
       </c>
       <c r="E7" t="n">
-        <v>0.314717703488558</v>
+        <v>0.0573103891867918</v>
       </c>
       <c r="F7" t="n">
-        <v>0.00676592440834746</v>
+        <v>0.139865379712335</v>
       </c>
       <c r="G7" t="n">
-        <v>0.337553541535826</v>
+        <v>0.0818463936396328</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0769352382662088</v>
+        <v>0.268408057577885</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0315307013562676</v>
+        <v>0.0478015905766782</v>
       </c>
       <c r="J7" t="n">
-        <v>0.018179141939191</v>
+        <v>0.111523036905944</v>
       </c>
       <c r="K7" t="n">
-        <v>0.012119366945177</v>
-      </c>
-      <c r="L7"/>
+        <v>0.0761942339716975</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0336880875430223</v>
+        <v>0.0297408048692535</v>
       </c>
       <c r="C8" t="n">
-        <v>0.141309920303633</v>
+        <v>0.005930988947215</v>
       </c>
       <c r="D8" t="n">
-        <v>0.116517458977985</v>
+        <v>0.194000681730933</v>
       </c>
       <c r="E8" t="n">
-        <v>0.272255352603589</v>
+        <v>0.0857331586090067</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0115425157360551</v>
+        <v>0.124236513062757</v>
       </c>
       <c r="G8" t="n">
-        <v>0.288735218555247</v>
+        <v>0.0804715226041099</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0629778640799966</v>
+        <v>0.208314341029336</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0314896365552907</v>
+        <v>0.0707090548622921</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0284734503803979</v>
+        <v>0.122522613305202</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0130104952647843</v>
-      </c>
-      <c r="L8"/>
+        <v>0.0783403209798949</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0277025994329582</v>
+        <v>0.0181681253282248</v>
       </c>
       <c r="C9" t="n">
-        <v>0.142798232333664</v>
+        <v>0.00387815417730149</v>
       </c>
       <c r="D9" t="n">
-        <v>0.104547824898837</v>
+        <v>0.186946425739355</v>
       </c>
       <c r="E9" t="n">
-        <v>0.251796151333809</v>
+        <v>0.0613859715117326</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0139407500268368</v>
+        <v>0.113008933112488</v>
       </c>
       <c r="G9" t="n">
-        <v>0.345969287313081</v>
+        <v>0.0608011554239862</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0590786649776048</v>
+        <v>0.278227257368194</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0229958816660872</v>
+        <v>0.0804918130155026</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0200682798747359</v>
+        <v>0.125769318770674</v>
       </c>
       <c r="K9" t="n">
-        <v>0.011102328142387</v>
-      </c>
-      <c r="L9"/>
+        <v>0.0713228455525411</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0454172379439163</v>
+        <v>0.024310999524573</v>
       </c>
       <c r="C10" t="n">
-        <v>0.135965264077758</v>
+        <v>0.00572859810090724</v>
       </c>
       <c r="D10" t="n">
-        <v>0.126830056097218</v>
+        <v>0.216542593656533</v>
       </c>
       <c r="E10" t="n">
-        <v>0.231148138566231</v>
+        <v>0.0600965234007294</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0106769039222873</v>
+        <v>0.116600114795598</v>
       </c>
       <c r="G10" t="n">
-        <v>0.306376394304979</v>
+        <v>0.0795543296412747</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0598880263197232</v>
+        <v>0.243701887979968</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0424970624266154</v>
+        <v>0.0656457914941494</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0215821904055916</v>
+        <v>0.131863904499028</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0195095298225189</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0.000109196113162175</v>
+        <v>0.0559552569072391</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0803351745679269</v>
+        <v>0.0214029483041245</v>
       </c>
       <c r="C11" t="n">
-        <v>0.100883723542798</v>
+        <v>0.00638457314490237</v>
       </c>
       <c r="D11" t="n">
-        <v>0.117528235827731</v>
+        <v>0.188150961143095</v>
       </c>
       <c r="E11" t="n">
-        <v>0.210207505678048</v>
+        <v>0.0896544930793396</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0206154815868634</v>
+        <v>0.107776766686565</v>
       </c>
       <c r="G11" t="n">
-        <v>0.326526995553685</v>
+        <v>0.0702685954724041</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0623367636685634</v>
+        <v>0.251693148813448</v>
       </c>
       <c r="I11" t="n">
-        <v>0.037778327462307</v>
+        <v>0.0658891028347851</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0279475295753708</v>
+        <v>0.128195749507065</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0158402625367068</v>
-      </c>
-      <c r="L11"/>
+        <v>0.0705836610142712</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0485750303940511</v>
+        <v>0.0264080380954544</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0910323836850167</v>
+        <v>0.00900056988027637</v>
       </c>
       <c r="D12" t="n">
-        <v>0.125457025649665</v>
+        <v>0.17347830631736</v>
       </c>
       <c r="E12" t="n">
-        <v>0.250877199890718</v>
+        <v>0.0809690659336002</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0085359886286612</v>
+        <v>0.123305996765786</v>
       </c>
       <c r="G12" t="n">
-        <v>0.307959293570341</v>
+        <v>0.0841615927881346</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0710561947111992</v>
+        <v>0.242392983583983</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0436633437858696</v>
+        <v>0.061983465975506</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0370970652272026</v>
+        <v>0.110063957073974</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0157464744572755</v>
-      </c>
-      <c r="L12"/>
+        <v>0.0882360235859245</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="n">
-        <v>0.051403754821807</v>
+        <v>0.0231421854088736</v>
       </c>
       <c r="C13" t="n">
-        <v>0.106472451573126</v>
+        <v>0.00712865972945285</v>
       </c>
       <c r="D13" t="n">
-        <v>0.120153213749289</v>
+        <v>0.209409048469882</v>
       </c>
       <c r="E13" t="n">
-        <v>0.252152425547121</v>
+        <v>0.0798244238120551</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0223728891592613</v>
+        <v>0.105154104841731</v>
       </c>
       <c r="G13" t="n">
-        <v>0.312854241531307</v>
+        <v>0.0775743473396208</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0617342526089468</v>
+        <v>0.241013721175696</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0363258644563485</v>
+        <v>0.0615122062067328</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0190016619017603</v>
+        <v>0.122343783642484</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0175292446510332</v>
-      </c>
-      <c r="L13"/>
+        <v>0.0728975193734716</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0571029000151471</v>
+        <v>0.0226790417141131</v>
       </c>
       <c r="C14" t="n">
-        <v>0.110146462376578</v>
+        <v>0.00889395737429333</v>
       </c>
       <c r="D14" t="n">
-        <v>0.106963271757282</v>
+        <v>0.173505181959837</v>
       </c>
       <c r="E14" t="n">
-        <v>0.21752899599964</v>
+        <v>0.0978858494651213</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0303511417273855</v>
+        <v>0.112036650659118</v>
       </c>
       <c r="G14" t="n">
-        <v>0.321624620881359</v>
+        <v>0.0759836172228924</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0714997679602353</v>
+        <v>0.236779561685035</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0415758498836844</v>
+        <v>0.0822700768837114</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0291961215089274</v>
+        <v>0.116138381970663</v>
       </c>
       <c r="K14" t="n">
-        <v>0.013801861277322</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0.000209006612439653</v>
+        <v>0.0738276810652159</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0345587696476134</v>
+        <v>0.0229033289270115</v>
       </c>
       <c r="C15" t="n">
-        <v>0.100824791664431</v>
+        <v>0.00867923524760114</v>
       </c>
       <c r="D15" t="n">
-        <v>0.108690274113561</v>
+        <v>0.220360685131972</v>
       </c>
       <c r="E15" t="n">
-        <v>0.277188139911353</v>
+        <v>0.0819369963833372</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0173994426732356</v>
+        <v>0.118714961337349</v>
       </c>
       <c r="G15" t="n">
-        <v>0.323482060822252</v>
+        <v>0.085263211875944</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0720113384342313</v>
+        <v>0.24990682602464</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0349801548298241</v>
+        <v>0.0337920867331721</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0162763372414558</v>
+        <v>0.113453061956249</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0145886906620437</v>
-      </c>
-      <c r="L15"/>
+        <v>0.0649896063827246</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0390405597353741</v>
+        <v>0.0256581846035645</v>
       </c>
       <c r="C16" t="n">
-        <v>0.140595044325993</v>
+        <v>0.00847446565007511</v>
       </c>
       <c r="D16" t="n">
-        <v>0.120068372647296</v>
+        <v>0.21262583109245</v>
       </c>
       <c r="E16" t="n">
-        <v>0.245005087925701</v>
+        <v>0.0710045004012427</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0185591193595307</v>
+        <v>0.0967060328859455</v>
       </c>
       <c r="G16" t="n">
-        <v>0.299845287524867</v>
+        <v>0.0739123774579763</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0668213141806511</v>
+        <v>0.254836788133577</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0254697708641321</v>
+        <v>0.0717751718427386</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0291913371673082</v>
+        <v>0.111348220320493</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0146462581867957</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0.000757848082350675</v>
+        <v>0.0736584276119381</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0340754930436231</v>
+        <v>0.0199486507019697</v>
       </c>
       <c r="C17" t="n">
-        <v>0.186045866128161</v>
+        <v>0.00384059658634596</v>
       </c>
       <c r="D17" t="n">
-        <v>0.105236963217171</v>
+        <v>0.201991019447189</v>
       </c>
       <c r="E17" t="n">
-        <v>0.21568481016658</v>
+        <v>0.0732098208701093</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0231684683115414</v>
+        <v>0.0984239623134575</v>
       </c>
       <c r="G17" t="n">
-        <v>0.296676448616844</v>
+        <v>0.0662879462705055</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0654906929677698</v>
+        <v>0.236649598391782</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0332273178623272</v>
+        <v>0.117176854173516</v>
       </c>
       <c r="J17" t="n">
-        <v>0.0259818795481651</v>
+        <v>0.114826497460294</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0144120601378176</v>
-      </c>
-      <c r="L17"/>
+        <v>0.0676450537848306</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0613017383121282</v>
+        <v>0.0315904115916362</v>
       </c>
       <c r="C18" t="n">
-        <v>0.127129587854061</v>
+        <v>0.00535993017574578</v>
       </c>
       <c r="D18" t="n">
-        <v>0.109625044667207</v>
+        <v>0.189332276434344</v>
       </c>
       <c r="E18" t="n">
-        <v>0.188820123615135</v>
+        <v>0.108249012792474</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0452335554493336</v>
+        <v>0.1084426714871</v>
       </c>
       <c r="G18" t="n">
-        <v>0.30616152813864</v>
+        <v>0.0777660573868293</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0572196154803365</v>
+        <v>0.20269832398148</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0506765706804896</v>
+        <v>0.0560757634127418</v>
       </c>
       <c r="J18" t="n">
-        <v>0.0288105993965229</v>
+        <v>0.140374510439001</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0249579834254533</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0.00006365298069354</v>
+        <v>0.0801110422986467</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0324056428985191</v>
+        <v>0.0278563834297585</v>
       </c>
       <c r="C19" t="n">
-        <v>0.149168282745075</v>
+        <v>0.00548683922421843</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0997199016048063</v>
+        <v>0.158489918959915</v>
       </c>
       <c r="E19" t="n">
-        <v>0.202686194257744</v>
+        <v>0.0749143129682095</v>
       </c>
       <c r="F19" t="n">
-        <v>0.042517406256604</v>
+        <v>0.112356978463286</v>
       </c>
       <c r="G19" t="n">
-        <v>0.302014005749198</v>
+        <v>0.0838715436646037</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0696469538424709</v>
+        <v>0.213666556711547</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0507632006777422</v>
+        <v>0.103536944927027</v>
       </c>
       <c r="J19" t="n">
-        <v>0.0275862298361488</v>
+        <v>0.128540790528386</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0234921821316928</v>
-      </c>
-      <c r="L19"/>
+        <v>0.0912797311230492</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0292122108189998</v>
+        <v>0.0299999844809595</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0288459677075265</v>
+        <v>0.0232092078234443</v>
       </c>
       <c r="D20" t="n">
-        <v>0.126215036330332</v>
+        <v>0.120435288861625</v>
       </c>
       <c r="E20" t="n">
-        <v>0.261927007086921</v>
+        <v>0.0794925831673347</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0267892741722426</v>
+        <v>0.177049335375235</v>
       </c>
       <c r="G20" t="n">
-        <v>0.294692880963555</v>
+        <v>0.0832775865845059</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0885966969209535</v>
+        <v>0.247064037669202</v>
       </c>
       <c r="I20" t="n">
-        <v>0.0859991259676735</v>
+        <v>0.0123650441489272</v>
       </c>
       <c r="J20" t="n">
-        <v>0.0347046541331583</v>
+        <v>0.109380369803242</v>
       </c>
       <c r="K20" t="n">
-        <v>0.0206997945833861</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0.00231735131525128</v>
+        <v>0.117726562085524</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B21" t="n">
-        <v>0.054401887316812</v>
+        <v>0.0470999372427892</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0283193741452483</v>
+        <v>0.00282292289687651</v>
       </c>
       <c r="D21" t="n">
-        <v>0.114553793575431</v>
+        <v>0.14163761607621</v>
       </c>
       <c r="E21" t="n">
-        <v>0.203454824626239</v>
+        <v>0.0934500594001446</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0720314556762628</v>
+        <v>0.156486641284273</v>
       </c>
       <c r="G21" t="n">
-        <v>0.28930631830683</v>
+        <v>0.0980892388857022</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0839436160829783</v>
+        <v>0.21419038052105</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0858706233079408</v>
+        <v>0.0150594557621266</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0440927400066792</v>
+        <v>0.133863748484816</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0237065882168684</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0.00031877873871023</v>
+        <v>0.0972999994460119</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0786946139892429</v>
+        <v>0.0398041163508785</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0901971757686585</v>
+        <v>0.00637594807933218</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0952129721802348</v>
+        <v>0.159540536152444</v>
       </c>
       <c r="E22" t="n">
-        <v>0.182892674438425</v>
+        <v>0.101109101046336</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0534790162155176</v>
+        <v>0.125372868848443</v>
       </c>
       <c r="G22" t="n">
-        <v>0.318619837611759</v>
+        <v>0.0872974121295415</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0610290666071122</v>
+        <v>0.184666206809118</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0654830014952445</v>
+        <v>0.0603148453544131</v>
       </c>
       <c r="J22" t="n">
-        <v>0.0254192909123393</v>
+        <v>0.15224827360012</v>
       </c>
       <c r="K22" t="n">
-        <v>0.0289261488505344</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0.0000462019309313334</v>
+        <v>0.083270691629373</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B23" t="n">
-        <v>0.125680462705316</v>
+        <v>0.0409300772074897</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0749205521204526</v>
+        <v>0.00421694180697767</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0856621920756719</v>
+        <v>0.137465076054132</v>
       </c>
       <c r="E23" t="n">
-        <v>0.163479428251676</v>
+        <v>0.12500337590334</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0782710422872539</v>
+        <v>0.126765169523984</v>
       </c>
       <c r="G23" t="n">
-        <v>0.291640682862348</v>
+        <v>0.0863171351820766</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0537683374979063</v>
+        <v>0.167572502679479</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0625645060282057</v>
+        <v>0.0649389152445573</v>
       </c>
       <c r="J23" t="n">
-        <v>0.0339014281852082</v>
+        <v>0.154017160519824</v>
       </c>
       <c r="K23" t="n">
-        <v>0.029863636213857</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0.000247731772104086</v>
+        <v>0.0927736458781398</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0694071142215262</v>
+        <v>0.0319318907586554</v>
       </c>
       <c r="C24" t="n">
-        <v>0.102593839005522</v>
+        <v>0.00966983476399311</v>
       </c>
       <c r="D24" t="n">
-        <v>0.105696154715895</v>
+        <v>0.127982511788829</v>
       </c>
       <c r="E24" t="n">
-        <v>0.199372529107622</v>
+        <v>0.0835319467853313</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0638172418880559</v>
+        <v>0.120251917792469</v>
       </c>
       <c r="G24" t="n">
-        <v>0.279934268867483</v>
+        <v>0.0825835708629062</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0574372869573043</v>
+        <v>0.202670333753774</v>
       </c>
       <c r="I24" t="n">
-        <v>0.0707044451541229</v>
+        <v>0.0875980589770037</v>
       </c>
       <c r="J24" t="n">
-        <v>0.0270939415205705</v>
+        <v>0.155545700043057</v>
       </c>
       <c r="K24" t="n">
-        <v>0.0239431785618981</v>
-      </c>
-      <c r="L24"/>
+        <v>0.0982342344739816</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0642904838009538</v>
+        <v>0.0398816448932154</v>
       </c>
       <c r="C25" t="n">
-        <v>0.103078088784538</v>
+        <v>0.0128315743627436</v>
       </c>
       <c r="D25" t="n">
-        <v>0.111468436626258</v>
+        <v>0.147298704315126</v>
       </c>
       <c r="E25" t="n">
-        <v>0.223620776837721</v>
+        <v>0.0948177686043851</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0184252717023471</v>
+        <v>0.116964665766432</v>
       </c>
       <c r="G25" t="n">
-        <v>0.311891400268574</v>
+        <v>0.0895636301161995</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0656665419495887</v>
+        <v>0.220289106379355</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0540211560474402</v>
+        <v>0.050878289503903</v>
       </c>
       <c r="J25" t="n">
-        <v>0.030015384762243</v>
+        <v>0.153571247344784</v>
       </c>
       <c r="K25" t="n">
-        <v>0.017327241499741</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0.000195217720595239</v>
+        <v>0.0739033687138559</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0488013621310553</v>
+        <v>0.0318812700396271</v>
       </c>
       <c r="C26" t="n">
-        <v>0.135240042113546</v>
+        <v>0.00488893413426003</v>
       </c>
       <c r="D26" t="n">
-        <v>0.108757909997526</v>
+        <v>0.169494759029614</v>
       </c>
       <c r="E26" t="n">
-        <v>0.183216777783385</v>
+        <v>0.100059823867855</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0183714476169462</v>
+        <v>0.0950551007234779</v>
       </c>
       <c r="G26" t="n">
-        <v>0.355604743677884</v>
+        <v>0.0878063807060671</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0611796655893042</v>
+        <v>0.224641123564482</v>
       </c>
       <c r="I26" t="n">
-        <v>0.0393929978120626</v>
+        <v>0.0647038826758067</v>
       </c>
       <c r="J26" t="n">
-        <v>0.0278284650687522</v>
+        <v>0.155535014210256</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0216065882095392</v>
-      </c>
-      <c r="L26"/>
+        <v>0.0659337110485542</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0674033353779826</v>
+        <v>0.033809145555386</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0769176631385871</v>
+        <v>0.00583876266753627</v>
       </c>
       <c r="D27" t="n">
-        <v>0.11783405636967</v>
+        <v>0.171879757751451</v>
       </c>
       <c r="E27" t="n">
-        <v>0.198613414375627</v>
+        <v>0.0955964154239527</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0287722372781737</v>
+        <v>0.104222404493246</v>
       </c>
       <c r="G27" t="n">
-        <v>0.337419194480043</v>
+        <v>0.0926561334675298</v>
       </c>
       <c r="H27" t="n">
-        <v>0.0719802137389208</v>
+        <v>0.243036886113675</v>
       </c>
       <c r="I27" t="n">
-        <v>0.0533431681200501</v>
+        <v>0.0394846711728502</v>
       </c>
       <c r="J27" t="n">
-        <v>0.0270049154272505</v>
+        <v>0.144357406551983</v>
       </c>
       <c r="K27" t="n">
-        <v>0.0207118016936951</v>
-      </c>
-      <c r="L27"/>
+        <v>0.069118416802389</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0161337977838956</v>
+        <v>0.0573308111556396</v>
       </c>
       <c r="C28" t="n">
-        <v>0.016169004802241</v>
+        <v>0.0395955908962677</v>
       </c>
       <c r="D28" t="n">
-        <v>0.136556681430552</v>
+        <v>0.119722063217401</v>
       </c>
       <c r="E28" t="n">
-        <v>0.319163874574005</v>
+        <v>0.0517271619279019</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0158242602104827</v>
+        <v>0.192747937941687</v>
       </c>
       <c r="G28" t="n">
-        <v>0.252050079707307</v>
+        <v>0.107222799071011</v>
       </c>
       <c r="H28" t="n">
-        <v>0.0599801601597376</v>
+        <v>0.217146940503173</v>
       </c>
       <c r="I28" t="n">
-        <v>0.0895387231135114</v>
+        <v>0.0148132846985575</v>
       </c>
       <c r="J28" t="n">
-        <v>0.0815639394560717</v>
+        <v>0.0818834876402731</v>
       </c>
       <c r="K28" t="n">
-        <v>0.0130194787621969</v>
-      </c>
-      <c r="L28"/>
+        <v>0.117809922948087</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
